--- a/Teratogénesis_R.xlsx
+++ b/Teratogénesis_R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Otros ordenadores\Mi portátil\Laptop Drive\Toxicología Acuática\Artículos\Evaluation of embryotoxicity\Resultados para artículo\Código Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC38DE60-13A8-4AC5-ACD8-55E0F43FF2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6F1E2-FED2-4E13-824D-6F690214A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="GMI Sedimento" sheetId="2" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Blood circulation</t>
   </si>
   <si>
-    <t>Pigmentatio head-body</t>
-  </si>
-  <si>
     <t>Pigmentation tail</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>Pigmentation head-body</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1801,7 @@
                   <c:v>Blood circulation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Pigmentatio head-body</c:v>
+                  <c:v>Pigmentation head-body</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Pigmentation tail</c:v>
@@ -1914,7 +1914,7 @@
                   <c:v>Blood circulation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Pigmentatio head-body</c:v>
+                  <c:v>Pigmentation head-body</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Pigmentation tail</c:v>
@@ -2027,7 +2027,7 @@
                   <c:v>Blood circulation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Pigmentatio head-body</c:v>
+                  <c:v>Pigmentation head-body</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Pigmentation tail</c:v>
@@ -2140,7 +2140,7 @@
                   <c:v>Blood circulation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Pigmentatio head-body</c:v>
+                  <c:v>Pigmentation head-body</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Pigmentation tail</c:v>
@@ -2253,7 +2253,7 @@
                   <c:v>Blood circulation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Pigmentatio head-body</c:v>
+                  <c:v>Pigmentation head-body</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Pigmentation tail</c:v>
@@ -12391,7 +12391,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -19781,8 +19781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C05A915-56E5-4ACA-B82B-A6CA9004FA0A}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19845,7 +19845,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -20269,7 +20269,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -20375,7 +20375,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -20428,7 +20428,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -20746,7 +20746,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -20799,7 +20799,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -20852,7 +20852,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -20905,7 +20905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -20958,7 +20958,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>60</v>
@@ -21117,7 +21117,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>60</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -21382,7 +21382,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>60</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -21488,7 +21488,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -21541,7 +21541,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -21594,7 +21594,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>55</v>
@@ -21700,7 +21700,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>55</v>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -21965,7 +21965,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>55</v>
@@ -22018,7 +22018,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>55</v>
@@ -22071,7 +22071,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>55</v>
@@ -22124,7 +22124,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -22177,7 +22177,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>55</v>
@@ -22283,7 +22283,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>55</v>
@@ -22495,7 +22495,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -22548,7 +22548,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>55</v>
@@ -22601,7 +22601,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>55</v>
@@ -22654,7 +22654,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>35</v>
@@ -22777,7 +22777,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -23113,7 +23113,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -23440,7 +23440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C0202-E93D-492E-AB98-56531025B74C}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A56"/>
     </sheetView>
   </sheetViews>
@@ -23504,7 +23504,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>55</v>
@@ -23610,7 +23610,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -23822,7 +23822,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -23875,7 +23875,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23928,7 +23928,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -23981,7 +23981,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -24034,7 +24034,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -24087,7 +24087,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -24193,7 +24193,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -24405,7 +24405,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -24458,7 +24458,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -24511,7 +24511,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -24564,7 +24564,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -24617,7 +24617,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -24670,7 +24670,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -24988,7 +24988,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>50</v>
@@ -25041,7 +25041,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>50</v>
@@ -25094,7 +25094,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -25147,7 +25147,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -25200,7 +25200,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -25253,7 +25253,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>45</v>
@@ -25359,7 +25359,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -25571,7 +25571,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>45</v>
@@ -25624,7 +25624,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>50</v>
@@ -25677,7 +25677,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -25730,7 +25730,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>50</v>
@@ -25783,7 +25783,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>15</v>
@@ -25836,7 +25836,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -25942,7 +25942,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>50</v>
@@ -26154,7 +26154,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -26207,7 +26207,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -26260,7 +26260,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -26313,7 +26313,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -26366,7 +26366,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>45</v>
@@ -26434,7 +26434,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/Teratogénesis_R.xlsx
+++ b/Teratogénesis_R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Otros ordenadores\Mi portátil\Laptop Drive\Toxicología Acuática\Artículos\Evaluation of embryotoxicity\Resultados para artículo\Código Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Código GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6F1E2-FED2-4E13-824D-6F690214A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C4E1A7-08DB-4059-9F0A-FF7AB119CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="GMI Sedimento" sheetId="2" r:id="rId1"/>
@@ -19781,8 +19781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C05A915-56E5-4ACA-B82B-A6CA9004FA0A}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20652,31 +20652,31 @@
         <v>65</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>85</v>
@@ -20705,22 +20705,22 @@
         <v>65</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>45</v>
@@ -23440,7 +23440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C0202-E93D-492E-AB98-56531025B74C}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A56"/>
     </sheetView>
   </sheetViews>

--- a/Teratogénesis_R.xlsx
+++ b/Teratogénesis_R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Otros ordenadores\Mi portátil\Laptop Drive\Toxicología Acuática\Artículos\Evaluation of embryotoxicity\Resultados para artículo\Código Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6F1E2-FED2-4E13-824D-6F690214A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1A081-CFF8-40BD-9372-F35A648A84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="11" activeTab="11" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="GMI Sedimento" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <sheet name="Características agua poro" sheetId="12" r:id="rId8"/>
     <sheet name="Supervivencia agua poro" sheetId="15" r:id="rId9"/>
     <sheet name="Eclosión agua poro" sheetId="16" r:id="rId10"/>
+    <sheet name="Teratogenesis Sedimento" sheetId="17" r:id="rId11"/>
+    <sheet name="Teratogenesis Agua poro" sheetId="18" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="56">
   <si>
     <t>12 h</t>
   </si>
@@ -163,6 +168,57 @@
   <si>
     <t>Pigmentation head-body</t>
   </si>
+  <si>
+    <t>Sitio</t>
+  </si>
+  <si>
+    <t>Pericardial edema</t>
+  </si>
+  <si>
+    <t>Yolk edema</t>
+  </si>
+  <si>
+    <t>Eye deformation</t>
+  </si>
+  <si>
+    <t>Malformation of the head</t>
+  </si>
+  <si>
+    <t>Malformation of the otoliths</t>
+  </si>
+  <si>
+    <t>Malformation of the tail</t>
+  </si>
+  <si>
+    <t>Malformation of the heart</t>
+  </si>
+  <si>
+    <t>Modified chorda structure</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>Rachischisis</t>
+  </si>
+  <si>
+    <t>Yolk deformation</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>P4 (VM)</t>
+  </si>
+  <si>
+    <t>P3 (RT)</t>
+  </si>
+  <si>
+    <t>P2 (RS)</t>
+  </si>
+  <si>
+    <t>P1 (NM)</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,13 +271,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5795,6 +5860,65 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Agua poro"/>
+      <sheetName val="GMI Agua poro"/>
+      <sheetName val="Malformaciones Agua poro"/>
+      <sheetName val="Sedimento"/>
+      <sheetName val="GMI Sedimento"/>
+      <sheetName val="Malformaciones Sedimento"/>
+      <sheetName val="Porcentajes características"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="69">
+          <cell r="BT69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="BT80">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="BT82">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="BT107">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="BT114">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="BT157">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
@@ -12714,6 +12838,560 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF1853C-42FE-4AF3-9C42-E05368B87C24}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>SUM([1]Sedimento!BT3:BT62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>SUM([1]Sedimento!BY3:BY62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>SUM([1]Sedimento!BG3:BG62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUM([1]Sedimento!BL3:BL62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM([1]Sedimento!BN3:BN62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM([1]Sedimento!BO3:BO62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM([1]Sedimento!BM3:BM62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUM([1]Sedimento!BQ3:BQ62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM([1]Sedimento!BV3:BV62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM([1]Sedimento!BU3:BU62)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM([1]Sedimento!BX3:BX62)/60*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>SUM([1]Sedimento!BT63:BT122)/60*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="C3">
+        <f>SUM([1]Sedimento!BY63:BY122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>SUM([1]Sedimento!BG63:BG122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SUM([1]Sedimento!BL63:BL122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUM([1]Sedimento!BN63:BN122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>SUM([1]Sedimento!BO63:BO122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUM([1]Sedimento!BM63:BM122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>SUM([1]Sedimento!BQ63:BQ122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>SUM([1]Sedimento!BV63:BV122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUM([1]Sedimento!BU63:BU122)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUM([1]Sedimento!BX63:BX122)/60*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>SUM([1]Sedimento!BT123:BT182)/60*100</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C4">
+        <f>SUM([1]Sedimento!BY123:BY182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUM([1]Sedimento!BG123:BG182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>SUM([1]Sedimento!BL123:BL182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUM([1]Sedimento!BN123:BN182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUM([1]Sedimento!BO123:BO182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUM([1]Sedimento!BM123:BM182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>SUM([1]Sedimento!BQ123:BQ182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUM([1]Sedimento!BV123:BV182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUM([1]Sedimento!BU123:BU182)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>SUM([1]Sedimento!BX123:BX182)/60*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>SUM([1]Sedimento!BT183:BT242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>SUM([1]Sedimento!BY183:BY242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>SUM([1]Sedimento!BG183:BG242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>SUM([1]Sedimento!BL183:BL242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUM([1]Sedimento!BN183:BN242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>SUM([1]Sedimento!BO183:BO242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUM([1]Sedimento!BM183:BM242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>SUM([1]Sedimento!BQ183:BQ242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>SUM([1]Sedimento!BV183:BV242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>SUM([1]Sedimento!BU183:BU242)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>SUM([1]Sedimento!BX183:BX242)/60*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <f>SUM([1]Sedimento!BT243:BT302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>SUM([1]Sedimento!BY243:BY302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>SUM([1]Sedimento!BG243:BG302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>SUM([1]Sedimento!BL243:BL302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>SUM([1]Sedimento!BN243:BN302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>SUM([1]Sedimento!BO243:BO302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>SUM([1]Sedimento!BM243:BM302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>SUM([1]Sedimento!BQ243:BQ302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>SUM([1]Sedimento!BV243:BV302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>SUM([1]Sedimento!BU243:BU302)/60*100</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>SUM([1]Sedimento!BX243:BX302)/60*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6C5072-B115-43E9-891C-4FD6627B4E82}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7360BB51-C077-465D-9EF2-985711D67766}">
   <dimension ref="A1:I13"/>
@@ -23440,7 +24118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C0202-E93D-492E-AB98-56531025B74C}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A56"/>
     </sheetView>
   </sheetViews>

--- a/Teratogénesis_R.xlsx
+++ b/Teratogénesis_R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Otros ordenadores\Mi portátil\Laptop Drive\Toxicología Acuática\Artículos\Evaluation of embryotoxicity\Resultados para artículo\Código Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1A081-CFF8-40BD-9372-F35A648A84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEC489-0757-4AD3-B8BF-EC60F7CD6F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="11" activeTab="11" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{9263EA93-14D1-42F1-AA0F-2BC1A3ABBCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="GMI Sedimento" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="58">
   <si>
     <t>12 h</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>P1 (NM)</t>
+  </si>
+  <si>
+    <t>P3 (TR)</t>
+  </si>
+  <si>
+    <t>P2 (SR)</t>
   </si>
 </sst>
 </file>
@@ -12507,8 +12513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5353E34-F858-46C5-8490-4F3FFCB67C67}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12535,7 +12541,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -12555,7 +12561,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12575,7 +12581,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12595,7 +12601,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12615,7 +12621,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12635,7 +12641,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12655,7 +12661,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12675,7 +12681,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12695,7 +12701,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12715,7 +12721,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12735,7 +12741,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12755,7 +12761,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -13153,7 +13159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6C5072-B115-43E9-891C-4FD6627B4E82}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
@@ -23784,7 +23790,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23811,7 +23817,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -23831,7 +23837,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -23851,7 +23857,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -23871,7 +23877,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -23891,7 +23897,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -23911,7 +23917,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -23931,7 +23937,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -23951,7 +23957,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23971,7 +23977,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -23991,7 +23997,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -24011,7 +24017,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -24031,7 +24037,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
